--- a/January 20/Gauge Sheets - January 2020/Mi West.xlsx
+++ b/January 20/Gauge Sheets - January 2020/Mi West.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MAGNUM\Mishaun\Python Scripts\Data Extraction\January 20\Gauge Sheets - January 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6DB9CB-F8DF-41B7-9AA5-C7BD857BB67C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AC6B70E-403D-4096-9803-83FEC72FDA50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="852" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-1845" windowWidth="29040" windowHeight="15840" tabRatio="852"/>
   </bookViews>
   <sheets>
-    <sheet name="Jan 2018" sheetId="54" r:id="rId1"/>
+    <sheet name="Jan 2020" sheetId="54" r:id="rId1"/>
     <sheet name="Feb 2018" sheetId="56" r:id="rId2"/>
     <sheet name=" March 2018" sheetId="57" r:id="rId3"/>
     <sheet name="April 2018" sheetId="58" r:id="rId4"/>
@@ -540,7 +540,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -613,7 +612,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2742,7 +2740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="X57" sqref="X57"/>
     </sheetView>
   </sheetViews>
@@ -20975,15 +20973,15 @@
         <v>50</v>
       </c>
       <c r="L59" s="46">
-        <f>SUM('Jan 2018'!L60)</f>
+        <f>SUM('Jan 2020'!L60)</f>
         <v>5267.91</v>
       </c>
       <c r="M59" s="46">
-        <f>SUM('Jan 2018'!M60)</f>
+        <f>SUM('Jan 2020'!M60)</f>
         <v>20071.599999999999</v>
       </c>
       <c r="N59" s="46">
-        <f>SUM('Jan 2018'!N60)</f>
+        <f>SUM('Jan 2020'!N60)</f>
         <v>0</v>
       </c>
       <c r="O59" s="46"/>
@@ -21096,7 +21094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="J40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AC58" sqref="AC58"/>
     </sheetView>
   </sheetViews>
